--- a/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/СЗЖБИ/uWliYCEKMP.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/СЗЖБИ/uWliYCEKMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Прайс желез. и бетонных изд." sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1353,13 +1353,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
@@ -1385,14 +1385,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="13">
         <v>0.29899999999999999</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>153</v>
       </c>
       <c r="D3" s="13">
@@ -1405,14 +1405,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="15">
         <v>0.314</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="15">
@@ -1425,14 +1425,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="15">
         <v>0.32800000000000001</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>155</v>
       </c>
       <c r="D5" s="15">
@@ -1445,14 +1445,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="15">
         <v>0.34200000000000003</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D6" s="15">
@@ -1465,14 +1465,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="15">
         <v>0.35699999999999998</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="15">
@@ -1485,14 +1485,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="15">
         <v>0.371</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>158</v>
       </c>
       <c r="D8" s="15">
@@ -1505,14 +1505,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15">
         <v>0.38500000000000001</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>159</v>
       </c>
       <c r="D9" s="15">
@@ -1525,14 +1525,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="15">
         <v>0.39900000000000002</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="15">
@@ -1545,14 +1545,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="15">
         <v>0.41399999999999998</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>161</v>
       </c>
       <c r="D11" s="15">
@@ -1565,14 +1565,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="15">
         <v>0.42799999999999999</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>162</v>
       </c>
       <c r="D12" s="15">
@@ -1585,14 +1585,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="15">
         <v>0.442</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>163</v>
       </c>
       <c r="D13" s="15">
@@ -1605,14 +1605,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="15">
         <v>0.45600000000000002</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>164</v>
       </c>
       <c r="D14" s="15">
@@ -1625,14 +1625,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="15">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>165</v>
       </c>
       <c r="D15" s="15">
@@ -1645,14 +1645,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="15">
         <v>0.48499999999999999</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>166</v>
       </c>
       <c r="D16" s="15">
@@ -1665,14 +1665,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="15">
         <v>0.499</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>167</v>
       </c>
       <c r="D17" s="15">
@@ -1685,14 +1685,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="15">
         <v>0.51300000000000001</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>168</v>
       </c>
       <c r="D18" s="15">
@@ -1705,14 +1705,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="15">
         <v>0.52800000000000002</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>169</v>
       </c>
       <c r="D19" s="15">
@@ -1725,14 +1725,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="15">
         <v>0.54200000000000004</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D20" s="15">
@@ -1745,14 +1745,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="15">
         <v>0.55600000000000005</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D21" s="15">
@@ -1765,14 +1765,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="15">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D22" s="15">
@@ -1785,14 +1785,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="15">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>173</v>
       </c>
       <c r="D23" s="15">
@@ -1805,14 +1805,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="15">
         <v>0.59899999999999998</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D24" s="15">
@@ -1825,14 +1825,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="15">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="17">
@@ -1845,14 +1845,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="15">
         <v>0.627</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>176</v>
       </c>
       <c r="D26" s="15">
@@ -1865,14 +1865,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="15">
         <v>0.64200000000000002</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="15">
@@ -1885,14 +1885,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="15">
         <v>0.65600000000000003</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>178</v>
       </c>
       <c r="D28" s="15">
@@ -1905,14 +1905,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="15">
         <v>0.67</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>179</v>
       </c>
       <c r="D29" s="15">
@@ -1925,14 +1925,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="15">
         <v>0.68400000000000005</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>180</v>
       </c>
       <c r="D30" s="15">
@@ -1945,14 +1945,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="15">
         <v>0.69899999999999995</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D31" s="15">
@@ -1965,14 +1965,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="15">
         <v>0.71299999999999997</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>182</v>
       </c>
       <c r="D32" s="15">
@@ -1985,14 +1985,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="15">
         <v>0.72699999999999998</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>183</v>
       </c>
       <c r="D33" s="15">
@@ -2005,14 +2005,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="15">
         <v>0.74199999999999999</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>184</v>
       </c>
       <c r="D34" s="15">
@@ -2025,14 +2025,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="15">
         <v>0.75600000000000001</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D35" s="15">
@@ -2045,14 +2045,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="15">
         <v>0.77</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>186</v>
       </c>
       <c r="D36" s="15">
@@ -2065,14 +2065,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="15">
         <v>0.78400000000000003</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>187</v>
       </c>
       <c r="D37" s="15">
@@ -2085,14 +2085,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="15">
         <v>0.79900000000000004</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>188</v>
       </c>
       <c r="D38" s="15">
@@ -2105,14 +2105,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="15">
         <v>0.81299999999999994</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>189</v>
       </c>
       <c r="D39" s="15">
@@ -2125,14 +2125,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="15">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="15">
@@ -2145,14 +2145,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="15">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>191</v>
       </c>
       <c r="D41" s="15">
@@ -2165,14 +2165,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="15">
         <v>0.85599999999999998</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>192</v>
       </c>
       <c r="D42" s="15">
@@ -2185,14 +2185,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B43" s="15">
         <v>0.87</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D43" s="15">
@@ -2205,14 +2205,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="15">
         <v>0.88400000000000001</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D44" s="15">
@@ -2225,14 +2225,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="15">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="15">
@@ -2245,14 +2245,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="15">
         <v>0.91300000000000003</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>196</v>
       </c>
       <c r="D46" s="15">
@@ -2265,14 +2265,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B47" s="15">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>197</v>
       </c>
       <c r="D47" s="15">
@@ -2285,14 +2285,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="15">
         <v>0.94099999999999995</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>198</v>
       </c>
       <c r="D48" s="15">
@@ -2305,14 +2305,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B49" s="15">
         <v>0.95499999999999996</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D49" s="15">
@@ -2325,14 +2325,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="15">
         <v>0.97</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="15">
@@ -2345,14 +2345,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="15">
         <v>0.98399999999999999</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D51" s="15">
@@ -2365,14 +2365,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="15">
         <v>0.998</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="15">
@@ -2385,14 +2385,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="15">
         <v>1.012</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D53" s="15">
@@ -2405,14 +2405,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="15">
         <v>1.0269999999999999</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D54" s="15">
@@ -2425,14 +2425,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="15">
         <v>1.0409999999999999</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="15">
@@ -2445,14 +2445,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B56" s="15">
         <v>1.0549999999999999</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D56" s="15">
@@ -2465,14 +2465,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B57" s="15">
         <v>1.07</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D57" s="15">
@@ -2485,14 +2485,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B58" s="15">
         <v>1.0840000000000001</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="15">
@@ -2505,14 +2505,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B59" s="15">
         <v>1.0980000000000001</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D59" s="15">
@@ -2525,14 +2525,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B60" s="15">
         <v>1.1120000000000001</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D60" s="15">
@@ -2545,14 +2545,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B61" s="15">
         <v>1.127</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="15">
@@ -2565,14 +2565,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="15">
         <v>1.141</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="15">
@@ -2585,14 +2585,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B63" s="15">
         <v>1.155</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="15">
@@ -2605,14 +2605,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B64" s="15">
         <v>1.169</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="15">
@@ -2625,14 +2625,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B65" s="15">
         <v>1.1839999999999999</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="15">
@@ -2645,14 +2645,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B66" s="15">
         <v>1.198</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D66" s="15">
@@ -2665,14 +2665,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="15">
         <v>1.212</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D67" s="15">
@@ -2685,14 +2685,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B68" s="15">
         <v>1.226</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="15" t="s">
         <v>121</v>
       </c>
       <c r="D68" s="15">
@@ -2705,14 +2705,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B69" s="15">
         <v>1.2410000000000001</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D69" s="15">
@@ -2725,14 +2725,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B70" s="15">
         <v>1.2549999999999999</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D70" s="15">
@@ -2745,14 +2745,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B71" s="15">
         <v>1.2689999999999999</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="15">
@@ -2765,14 +2765,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B72" s="15">
         <v>1.2829999999999999</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="15" t="s">
         <v>129</v>
       </c>
       <c r="D72" s="15">
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/СЗЖБИ/uWliYCEKMP.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/СЗЖБИ/uWliYCEKMP.xlsx
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="A3" sqref="A3:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/СЗЖБИ/uWliYCEKMP.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/СЗЖБИ/uWliYCEKMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22680" windowHeight="10770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Прайс желез. и бетонных изд." sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E72"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
